--- a/MarsFrameworkSpecflow/MarsFrameworkSpecflow/ExcelData/ExcelDataSpecflow.xlsx
+++ b/MarsFrameworkSpecflow/MarsFrameworkSpecflow/ExcelData/ExcelDataSpecflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Industry Connect\Internship\Tasks\Sprint3.Specflow\MarsFrameworkSpecflow\MarsFrameworkSpecflow\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BDBC3A-1274-42FA-97C9-FF2CD6B3CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FFC8C0-360A-4E35-BF39-41008EBA0A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{82EEA056-9B79-4A10-8889-AA867495E780}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{82EEA056-9B79-4A10-8889-AA867495E780}"/>
   </bookViews>
   <sheets>
     <sheet name="LogIn" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="100">
   <si>
     <t>charlie.penaredondo@gmail.com</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>charlie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC15378-07E4-4509-8C8A-368685011C4A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,6 +1475,17 @@
       </c>
       <c r="B7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2430586E-F833-45DC-AC19-814261E88F2B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
